--- a/results/FrequencyTables/27404981_gRNA-TataA1.xlsx
+++ b/results/FrequencyTables/27404981_gRNA-TataA1.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00449775112443778</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00224887556221889</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00524737631184408</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00224887556221889</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.991754122938531</v>
       </c>
       <c r="H2">
-        <v>0.0303030303030303</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.995502248875562</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0194902548725637</v>
       </c>
       <c r="K2">
-        <v>0.0101010101010101</v>
+        <v>0.00449775112443778</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0157421289355322</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.000749625187406297</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.027736131934033</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00149925037481259</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.991754122938531</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00524737631184408</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.992503748125937</v>
       </c>
       <c r="S2">
-        <v>0.0101010101010101</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.991754122938531</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.991004497751124</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.00149925037481259</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00299850074962519</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.986506746626687</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.986506746626687</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.992503748125937</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.991754122938531</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00224887556221889</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.997751124437781</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00149925037481259</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00224887556221889</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00374812593703148</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00224887556221889</v>
       </c>
       <c r="K3">
-        <v>0.0202020202020202</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.979010494752624</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00224887556221889</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00299850074962519</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.991754122938531</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00224887556221889</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00149925037481259</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00449775112443778</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00149925037481259</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00599700149925037</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00449775112443778</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.989505247376312</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00299850074962519</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00374812593703148</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00449775112443778</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00224887556221889</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00149925037481259</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.000749625187406297</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00299850074962519</v>
       </c>
       <c r="H4">
-        <v>0.96969696969697</v>
+        <v>0.971514242878561</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00449775112443778</v>
       </c>
       <c r="K4">
-        <v>0.96969696969697</v>
+        <v>0.97376311844078</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00224887556221889</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00149925037481259</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.968515742128936</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00449775112443778</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00374812593703148</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00299850074962519</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00449775112443778</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00149925037481259</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00224887556221889</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00224887556221889</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.988755622188906</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.00374812593703148</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.00524737631184408</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00524737631184408</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.000749625187406297</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.000749625187406297</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.99400299850075</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00149925037481259</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00374812593703148</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00449775112443778</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000749625187406297</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.97376311844078</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00224887556221889</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.995502248875562</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.000749625187406297</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00224887556221889</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00224887556221889</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0.991754122938531</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00149925037481259</v>
       </c>
       <c r="S5">
-        <v>0.98989898989899</v>
+        <v>0.950524737631184</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00449775112443778</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000749625187406297</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00524737631184408</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00374812593703148</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00524737631184408</v>
       </c>
     </row>
   </sheetData>
